--- a/resource/testdata.xlsx
+++ b/resource/testdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AnithaRaman\eclipse-workspace1\ELearningExercise\resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44BBE014-CADB-448C-9222-EC16720696DD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DDB79C4-6280-48B6-898B-903F1B09CBBC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{F6430F7B-C54A-4202-91D9-7B88DA78CB8F}"/>
   </bookViews>
@@ -45,16 +45,16 @@
     <t>Role</t>
   </si>
   <si>
-    <t>e learning</t>
-  </si>
-  <si>
-    <t>e learning project</t>
-  </si>
-  <si>
     <t>design</t>
   </si>
   <si>
     <t>developer</t>
+  </si>
+  <si>
+    <t>elearning</t>
+  </si>
+  <si>
+    <t>elearning project</t>
   </si>
 </sst>
 </file>
@@ -409,7 +409,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -430,16 +430,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
